--- a/arxiv_paper_df_with_abstract_by_theme_revised.xlsx
+++ b/arxiv_paper_df_with_abstract_by_theme_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E5E15-8B50-4C94-B0E0-B87D40ACCEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9516820-1662-4DBA-A729-8C055A0F312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="627">
   <si>
     <t>Title</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Convolutional Neural Networks for Sentence Classification</t>
   </si>
   <si>
-    <t>Convolutional Neural Networks using Logarithmic Data Representation</t>
-  </si>
-  <si>
     <t>Permutation Invariant Training of Deep Models for Speaker-Independent Multi-talker Speech Separation</t>
   </si>
   <si>
@@ -727,9 +724,6 @@
     <t>Yoon Kim et al</t>
   </si>
   <si>
-    <t>Daisuke Miyashita et al</t>
-  </si>
-  <si>
     <t>Dong Yu et al</t>
   </si>
   <si>
@@ -1100,9 +1094,6 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/1408.5882v2)</t>
-  </si>
-  <si>
-    <t>[Link](http://arxiv.org/abs/1603.01025v2)</t>
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/1607.00325v2)</t>
@@ -1516,24 +1507,6 @@
 the use of both task-specific and static vectors. The CNN models discussed
 herein improve upon the state of the art on 4 out of 7 tasks, which include
 sentiment analysis and question classification.</t>
-  </si>
-  <si>
-    <t>Recent advances in convolutional neural networks have considered model
-complexity and hardware efficiency to enable deployment onto embedded systems
-and mobile devices. For example, it is now well-known that the arithmetic
-operations of deep networks can be encoded down to 8-bit fixed-point without
-significant deterioration in performance. However, further reduction in
-precision down to as low as 3-bit fixed-point results in significant losses in
-performance. In this paper we propose a new data representation that enables
-state-of-the-art networks to be encoded to 3 bits with negligible loss in
-classification performance. To perform this, we take advantage of the fact that
-the weights and activations in a trained network naturally have non-uniform
-distributions. Using non-uniform, base-2 logarithmic representation to encode
-weights, communicate activations, and perform dot-products enables networks to
-1) achieve higher classification accuracies than fixed-point at the same
-resolution and 2) eliminate bulky digital multipliers. Finally, we propose an
-end-to-end training procedure that uses log representation at 5-bits, which
-achieves higher final test accuracy than linear at 5-bits.</t>
   </si>
   <si>
     <t>We propose a novel deep learning model, which supports permutation invariant
@@ -3594,6 +3567,9 @@
 leads us to report results competitive with convnets for both Imagenet (where
 we obtain up to 85.2% accuracy) and when transferring to other tasks. We share
 our code and models.</t>
+  </si>
+  <si>
+    <t>[Link](https://www.cs.toronto.edu/~rsalakhu/papers/srivastava14a.pdf)</t>
   </si>
 </sst>
 </file>
@@ -3968,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,19 +3991,19 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>41640</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>626</v>
       </c>
       <c r="H2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4039,19 +4015,19 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>41876</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4063,16 +4039,16 @@
         <v>26</v>
       </c>
       <c r="E4" s="2">
-        <v>42432</v>
+        <v>42552</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4083,17 +4059,20 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
       <c r="E5" s="2">
-        <v>42552</v>
+        <v>42894</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4108,16 +4087,16 @@
         <v>162</v>
       </c>
       <c r="E6" s="2">
-        <v>42894</v>
+        <v>43040</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,16 +4111,16 @@
         <v>163</v>
       </c>
       <c r="E7" s="2">
-        <v>43040</v>
+        <v>43185</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,20 +4131,17 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
       <c r="E8" s="2">
-        <v>43185</v>
+        <v>43539</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4176,21 +4152,26 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
       <c r="E9" s="2">
-        <v>43539</v>
+        <v>44133</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -4201,42 +4182,37 @@
         <v>165</v>
       </c>
       <c r="E10" s="2">
-        <v>44133</v>
+        <v>37438</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
       <c r="E11" s="2">
-        <v>37438</v>
+        <v>43210</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,47 +4223,47 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
       <c r="E12" s="2">
-        <v>43210</v>
+        <v>44470</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>167</v>
-      </c>
       <c r="E13" s="2">
-        <v>44470</v>
+        <v>41290</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -4295,16 +4271,16 @@
         <v>36</v>
       </c>
       <c r="E14" s="2">
-        <v>41290</v>
+        <v>41426</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4316,16 +4292,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <v>41426</v>
+        <v>43176</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4336,17 +4312,20 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
       <c r="E16" s="2">
-        <v>43176</v>
+        <v>43331</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4361,16 +4340,16 @@
         <v>168</v>
       </c>
       <c r="E17" s="2">
-        <v>43331</v>
+        <v>43704</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H17" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4385,16 +4364,16 @@
         <v>169</v>
       </c>
       <c r="E18" s="2">
-        <v>43704</v>
+        <v>44304</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H18" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4409,16 +4388,16 @@
         <v>170</v>
       </c>
       <c r="E19" s="2">
-        <v>44304</v>
+        <v>44350</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4429,47 +4408,47 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
       <c r="E20" s="2">
-        <v>44350</v>
+        <v>45070</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
       <c r="E21" s="2">
-        <v>45070</v>
+        <v>42461</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -4480,16 +4459,16 @@
         <v>172</v>
       </c>
       <c r="E22" s="2">
-        <v>42461</v>
+        <v>43628</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4504,16 +4483,16 @@
         <v>173</v>
       </c>
       <c r="E23" s="2">
-        <v>43628</v>
+        <v>43990</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H23" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4524,20 +4503,17 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
-        <v>174</v>
-      </c>
       <c r="E24" s="2">
-        <v>43990</v>
+        <v>44054</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4548,21 +4524,26 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
       <c r="E25" s="2">
-        <v>44054</v>
+        <v>44470</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -4573,22 +4554,20 @@
         <v>175</v>
       </c>
       <c r="E26" s="2">
-        <v>44470</v>
+        <v>39177</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H26" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -4599,16 +4578,16 @@
         <v>176</v>
       </c>
       <c r="E27" s="2">
-        <v>39177</v>
+        <v>41883</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H27" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4623,16 +4602,16 @@
         <v>177</v>
       </c>
       <c r="E28" s="2">
-        <v>41883</v>
+        <v>41892</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H28" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4643,20 +4622,17 @@
       <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
-        <v>178</v>
-      </c>
       <c r="E29" s="2">
-        <v>41892</v>
+        <v>42256</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H29" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4668,16 +4644,16 @@
         <v>52</v>
       </c>
       <c r="E30" s="2">
-        <v>42256</v>
+        <v>42370</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4689,16 +4665,16 @@
         <v>53</v>
       </c>
       <c r="E31" s="2">
-        <v>42370</v>
+        <v>42639</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4709,17 +4685,20 @@
       <c r="C32" t="s">
         <v>54</v>
       </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
       <c r="E32" s="2">
-        <v>42639</v>
+        <v>42854</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H32" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4730,20 +4709,17 @@
       <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
       <c r="E33" s="2">
-        <v>42854</v>
+        <v>42881</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,16 +4731,16 @@
         <v>56</v>
       </c>
       <c r="E34" s="2">
-        <v>42881</v>
+        <v>42898</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H34" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4776,16 +4752,16 @@
         <v>57</v>
       </c>
       <c r="E35" s="2">
-        <v>42898</v>
+        <v>42939</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H35" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,16 +4773,16 @@
         <v>58</v>
       </c>
       <c r="E36" s="2">
-        <v>42939</v>
+        <v>43146</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H36" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,16 +4794,16 @@
         <v>59</v>
       </c>
       <c r="E37" s="2">
-        <v>43146</v>
+        <v>43191</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H37" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4838,17 +4814,20 @@
       <c r="C38" t="s">
         <v>60</v>
       </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
       <c r="E38" s="2">
-        <v>43191</v>
+        <v>43262</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4859,20 +4838,17 @@
       <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
       <c r="E39" s="2">
-        <v>43262</v>
+        <v>43384</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4883,17 +4859,20 @@
       <c r="C40" t="s">
         <v>62</v>
       </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
       <c r="E40" s="2">
-        <v>43384</v>
+        <v>43617</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H40" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4904,20 +4883,17 @@
       <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="D41" t="s">
-        <v>181</v>
-      </c>
       <c r="E41" s="2">
-        <v>43617</v>
+        <v>43670</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H41" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,17 +4904,20 @@
       <c r="C42" t="s">
         <v>64</v>
       </c>
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
       <c r="E42" s="2">
-        <v>43670</v>
+        <v>43721</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H42" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4953,16 +4932,16 @@
         <v>182</v>
       </c>
       <c r="E43" s="2">
-        <v>43721</v>
+        <v>43761</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H43" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4973,20 +4952,17 @@
       <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="s">
-        <v>183</v>
-      </c>
       <c r="E44" s="2">
-        <v>43761</v>
+        <v>43767</v>
       </c>
       <c r="F44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H44" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,17 +4973,20 @@
       <c r="C45" t="s">
         <v>67</v>
       </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
       <c r="E45" s="2">
-        <v>43767</v>
+        <v>43831</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G45" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H45" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5018,20 +4997,17 @@
       <c r="C46" t="s">
         <v>68</v>
       </c>
-      <c r="D46" t="s">
-        <v>184</v>
-      </c>
       <c r="E46" s="2">
-        <v>43831</v>
+        <v>43938</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G46" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H46" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5042,17 +5018,20 @@
       <c r="C47" t="s">
         <v>69</v>
       </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
       <c r="E47" s="2">
-        <v>43938</v>
+        <v>44442</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H47" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5067,16 +5046,16 @@
         <v>185</v>
       </c>
       <c r="E48" s="2">
-        <v>44442</v>
+        <v>44562</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H48" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5091,16 +5070,16 @@
         <v>186</v>
       </c>
       <c r="E49" s="2">
-        <v>44562</v>
+        <v>44667</v>
       </c>
       <c r="F49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H49" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,19 +5091,19 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="2">
-        <v>44667</v>
+        <v>44842</v>
       </c>
       <c r="F50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H50" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5139,16 +5118,16 @@
         <v>187</v>
       </c>
       <c r="E51" s="2">
-        <v>44842</v>
+        <v>44894</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H51" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5163,16 +5142,16 @@
         <v>188</v>
       </c>
       <c r="E52" s="2">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H52" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,16 +5166,16 @@
         <v>189</v>
       </c>
       <c r="E53" s="2">
-        <v>44915</v>
+        <v>44927</v>
       </c>
       <c r="F53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H53" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5207,20 +5186,17 @@
       <c r="C54" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="s">
-        <v>190</v>
-      </c>
       <c r="E54" s="2">
-        <v>44927</v>
+        <v>44984</v>
       </c>
       <c r="F54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H54" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5231,17 +5207,20 @@
       <c r="C55" t="s">
         <v>77</v>
       </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
       <c r="E55" s="2">
-        <v>44984</v>
+        <v>45022</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H55" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5253,19 +5232,19 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2">
-        <v>45022</v>
+        <v>45072</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5276,47 +5255,47 @@
       <c r="C57" t="s">
         <v>79</v>
       </c>
-      <c r="D57" t="s">
-        <v>189</v>
-      </c>
       <c r="E57" s="2">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="F57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G57" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H57" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>80</v>
       </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
       <c r="E58" s="2">
-        <v>45073</v>
+        <v>39234</v>
       </c>
       <c r="F58" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H58" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -5327,20 +5306,22 @@
         <v>192</v>
       </c>
       <c r="E59" s="2">
-        <v>39234</v>
+        <v>42247</v>
       </c>
       <c r="F59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H59" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -5351,22 +5332,20 @@
         <v>193</v>
       </c>
       <c r="E60" s="2">
-        <v>42247</v>
+        <v>42803</v>
       </c>
       <c r="F60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H60" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -5377,16 +5356,16 @@
         <v>194</v>
       </c>
       <c r="E61" s="2">
-        <v>42803</v>
+        <v>42938</v>
       </c>
       <c r="F61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H61" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,24 +5376,23 @@
       <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="D62" t="s">
-        <v>195</v>
-      </c>
       <c r="E62" s="2">
-        <v>42938</v>
+        <v>44355</v>
       </c>
       <c r="F62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H62" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B63" s="1">
         <v>62</v>
       </c>
@@ -5422,21 +5400,21 @@
         <v>85</v>
       </c>
       <c r="E63" s="2">
-        <v>44355</v>
+        <v>42706</v>
       </c>
       <c r="F63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H63" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
@@ -5444,22 +5422,25 @@
       <c r="C64" t="s">
         <v>86</v>
       </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
       <c r="E64" s="2">
-        <v>42706</v>
+        <v>33298</v>
       </c>
       <c r="F64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G64" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="H64" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
@@ -5467,69 +5448,67 @@
       <c r="C65" t="s">
         <v>87</v>
       </c>
-      <c r="D65" t="s">
-        <v>196</v>
-      </c>
       <c r="E65" s="2">
-        <v>33298</v>
+        <v>44292</v>
       </c>
       <c r="F65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G65" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="H65" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>16</v>
+      <c r="A66" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>196</v>
       </c>
       <c r="E66" s="2">
-        <v>44292</v>
+        <v>38949</v>
       </c>
       <c r="F66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H66" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
         <v>197</v>
       </c>
       <c r="E67" s="2">
-        <v>38949</v>
+        <v>42458</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H67" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5544,16 +5523,16 @@
         <v>198</v>
       </c>
       <c r="E68" s="2">
-        <v>42458</v>
+        <v>43926</v>
       </c>
       <c r="F68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H68" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,23 +5544,25 @@
         <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E69" s="2">
-        <v>43926</v>
+        <v>44607</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H69" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -5589,25 +5570,23 @@
         <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2">
-        <v>44607</v>
+        <v>42072</v>
       </c>
       <c r="F70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G70" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H70" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -5618,16 +5597,16 @@
         <v>200</v>
       </c>
       <c r="E71" s="2">
-        <v>42072</v>
+        <v>43505</v>
       </c>
       <c r="F71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G71" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H71" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5638,20 +5617,17 @@
       <c r="C72" t="s">
         <v>93</v>
       </c>
-      <c r="D72" t="s">
-        <v>201</v>
-      </c>
       <c r="E72" s="2">
-        <v>43505</v>
+        <v>43593</v>
       </c>
       <c r="F72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G72" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H72" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5662,17 +5638,20 @@
       <c r="C73" t="s">
         <v>94</v>
       </c>
+      <c r="D73" t="s">
+        <v>201</v>
+      </c>
       <c r="E73" s="2">
-        <v>43593</v>
+        <v>43702</v>
       </c>
       <c r="F73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H73" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5687,16 +5666,16 @@
         <v>202</v>
       </c>
       <c r="E74" s="2">
-        <v>43702</v>
+        <v>43740</v>
       </c>
       <c r="F74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G74" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H74" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5707,20 +5686,17 @@
       <c r="C75" t="s">
         <v>96</v>
       </c>
-      <c r="D75" t="s">
-        <v>203</v>
-      </c>
       <c r="E75" s="2">
-        <v>43740</v>
+        <v>43797</v>
       </c>
       <c r="F75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H75" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5732,16 +5708,16 @@
         <v>97</v>
       </c>
       <c r="E76" s="2">
-        <v>43797</v>
+        <v>43886</v>
       </c>
       <c r="F76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G76" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H76" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5752,21 +5728,26 @@
       <c r="C77" t="s">
         <v>98</v>
       </c>
+      <c r="D77" t="s">
+        <v>164</v>
+      </c>
       <c r="E77" s="2">
-        <v>43886</v>
+        <v>44196</v>
       </c>
       <c r="F77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G77" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H77" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B78" s="1">
         <v>77</v>
       </c>
@@ -5774,45 +5755,40 @@
         <v>99</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E78" s="2">
-        <v>44196</v>
+        <v>41501</v>
       </c>
       <c r="F78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>100</v>
       </c>
-      <c r="D79" t="s">
-        <v>204</v>
-      </c>
       <c r="E79" s="2">
-        <v>41501</v>
+        <v>42445</v>
       </c>
       <c r="F79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H79" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5823,17 +5799,20 @@
       <c r="C80" t="s">
         <v>101</v>
       </c>
+      <c r="D80" t="s">
+        <v>204</v>
+      </c>
       <c r="E80" s="2">
-        <v>42445</v>
+        <v>42541</v>
       </c>
       <c r="F80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G80" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5844,20 +5823,17 @@
       <c r="C81" t="s">
         <v>102</v>
       </c>
-      <c r="D81" t="s">
-        <v>205</v>
-      </c>
       <c r="E81" s="2">
-        <v>42541</v>
+        <v>42635</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G81" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H81" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5869,16 +5845,16 @@
         <v>103</v>
       </c>
       <c r="E82" s="2">
-        <v>42635</v>
+        <v>43084</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G82" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5889,17 +5865,20 @@
       <c r="C83" t="s">
         <v>104</v>
       </c>
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
       <c r="E83" s="2">
-        <v>43084</v>
+        <v>43425</v>
       </c>
       <c r="F83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H83" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5914,16 +5893,16 @@
         <v>206</v>
       </c>
       <c r="E84" s="2">
-        <v>43425</v>
+        <v>43658</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H84" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5934,20 +5913,17 @@
       <c r="C85" t="s">
         <v>106</v>
       </c>
-      <c r="D85" t="s">
-        <v>207</v>
-      </c>
       <c r="E85" s="2">
-        <v>43658</v>
+        <v>43720</v>
       </c>
       <c r="F85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H85" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5959,16 +5935,16 @@
         <v>107</v>
       </c>
       <c r="E86" s="2">
-        <v>43720</v>
+        <v>43790</v>
       </c>
       <c r="F86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5980,16 +5956,16 @@
         <v>108</v>
       </c>
       <c r="E87" s="2">
-        <v>43790</v>
+        <v>43897</v>
       </c>
       <c r="F87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -6001,16 +5977,16 @@
         <v>109</v>
       </c>
       <c r="E88" s="2">
-        <v>43897</v>
+        <v>43921</v>
       </c>
       <c r="F88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -6021,17 +5997,20 @@
       <c r="C89" t="s">
         <v>110</v>
       </c>
+      <c r="D89" t="s">
+        <v>207</v>
+      </c>
       <c r="E89" s="2">
-        <v>43921</v>
+        <v>43941</v>
       </c>
       <c r="F89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H89" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6046,16 +6025,16 @@
         <v>208</v>
       </c>
       <c r="E90" s="2">
-        <v>43941</v>
+        <v>44196</v>
       </c>
       <c r="F90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G90" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H90" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6070,16 +6049,16 @@
         <v>209</v>
       </c>
       <c r="E91" s="2">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="F91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G91" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H91" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6094,16 +6073,16 @@
         <v>210</v>
       </c>
       <c r="E92" s="2">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="F92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H92" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6115,19 +6094,19 @@
         <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="E93" s="2">
-        <v>44280</v>
+        <v>44362</v>
       </c>
       <c r="F93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G93" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H93" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6138,20 +6117,17 @@
       <c r="C94" t="s">
         <v>115</v>
       </c>
-      <c r="D94" t="s">
-        <v>175</v>
-      </c>
       <c r="E94" s="2">
-        <v>44362</v>
+        <v>44632</v>
       </c>
       <c r="F94" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G94" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H94" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6162,17 +6138,20 @@
       <c r="C95" t="s">
         <v>116</v>
       </c>
+      <c r="D95" t="s">
+        <v>211</v>
+      </c>
       <c r="E95" s="2">
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="F95" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G95" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H95" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6187,16 +6166,16 @@
         <v>212</v>
       </c>
       <c r="E96" s="2">
-        <v>44641</v>
+        <v>44706</v>
       </c>
       <c r="F96" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H96" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6211,16 +6190,16 @@
         <v>213</v>
       </c>
       <c r="E97" s="2">
-        <v>44706</v>
+        <v>44716</v>
       </c>
       <c r="F97" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G97" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H97" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6232,19 +6211,19 @@
         <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" s="2">
-        <v>44716</v>
+        <v>44831</v>
       </c>
       <c r="F98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G98" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H98" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6259,16 +6238,16 @@
         <v>214</v>
       </c>
       <c r="E99" s="2">
-        <v>44831</v>
+        <v>44953</v>
       </c>
       <c r="F99" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G99" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H99" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6279,20 +6258,17 @@
       <c r="C100" t="s">
         <v>121</v>
       </c>
-      <c r="D100" t="s">
-        <v>215</v>
-      </c>
       <c r="E100" s="2">
-        <v>44953</v>
+        <v>44961</v>
       </c>
       <c r="F100" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G100" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H100" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6303,17 +6279,20 @@
       <c r="C101" t="s">
         <v>122</v>
       </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
       <c r="E101" s="2">
-        <v>44961</v>
+        <v>45034</v>
       </c>
       <c r="F101" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G101" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H101" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6324,20 +6303,17 @@
       <c r="C102" t="s">
         <v>123</v>
       </c>
-      <c r="D102" t="s">
-        <v>216</v>
-      </c>
       <c r="E102" s="2">
-        <v>45034</v>
+        <v>45064</v>
       </c>
       <c r="F102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H102" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6349,16 +6325,16 @@
         <v>124</v>
       </c>
       <c r="E103" s="2">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="F103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G103" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H103" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6369,17 +6345,20 @@
       <c r="C104" t="s">
         <v>125</v>
       </c>
+      <c r="D104" t="s">
+        <v>190</v>
+      </c>
       <c r="E104" s="2">
         <v>45069</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H104" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6390,24 +6369,23 @@
       <c r="C105" t="s">
         <v>126</v>
       </c>
-      <c r="D105" t="s">
-        <v>191</v>
-      </c>
       <c r="E105" s="2">
-        <v>45069</v>
+        <v>45075</v>
       </c>
       <c r="F105" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G105" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H105" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
@@ -6415,21 +6393,21 @@
         <v>127</v>
       </c>
       <c r="E106" s="2">
-        <v>45075</v>
+        <v>42984</v>
       </c>
       <c r="F106" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G106" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H106" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>20</v>
+      <c r="A107" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
@@ -6437,43 +6415,41 @@
       <c r="C107" t="s">
         <v>128</v>
       </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
       <c r="E107" s="2">
-        <v>42984</v>
+        <v>41627</v>
       </c>
       <c r="F107" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G107" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H107" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>129</v>
       </c>
-      <c r="D108" t="s">
-        <v>217</v>
-      </c>
       <c r="E108" s="2">
-        <v>41627</v>
+        <v>42936</v>
       </c>
       <c r="F108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G108" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H108" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6484,17 +6460,20 @@
       <c r="C109" t="s">
         <v>130</v>
       </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
       <c r="E109" s="2">
-        <v>42936</v>
+        <v>43014</v>
       </c>
       <c r="F109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G109" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H109" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6509,16 +6488,16 @@
         <v>218</v>
       </c>
       <c r="E110" s="2">
-        <v>43014</v>
+        <v>43070</v>
       </c>
       <c r="F110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G110" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H110" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6533,16 +6512,16 @@
         <v>219</v>
       </c>
       <c r="E111" s="2">
-        <v>43070</v>
+        <v>43157</v>
       </c>
       <c r="F111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G111" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H111" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6553,20 +6532,17 @@
       <c r="C112" t="s">
         <v>133</v>
       </c>
-      <c r="D112" t="s">
-        <v>220</v>
-      </c>
       <c r="E112" s="2">
-        <v>43157</v>
+        <v>43929</v>
       </c>
       <c r="F112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G112" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H112" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6577,17 +6553,20 @@
       <c r="C113" t="s">
         <v>134</v>
       </c>
+      <c r="D113" t="s">
+        <v>220</v>
+      </c>
       <c r="E113" s="2">
-        <v>43929</v>
+        <v>44078</v>
       </c>
       <c r="F113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G113" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H113" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6598,20 +6577,17 @@
       <c r="C114" t="s">
         <v>135</v>
       </c>
-      <c r="D114" t="s">
-        <v>221</v>
-      </c>
       <c r="E114" s="2">
-        <v>44078</v>
+        <v>44462</v>
       </c>
       <c r="F114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G114" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H114" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6623,16 +6599,16 @@
         <v>136</v>
       </c>
       <c r="E115" s="2">
-        <v>44462</v>
+        <v>44481</v>
       </c>
       <c r="F115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H115" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6643,17 +6619,20 @@
       <c r="C116" t="s">
         <v>137</v>
       </c>
+      <c r="D116" t="s">
+        <v>221</v>
+      </c>
       <c r="E116" s="2">
-        <v>44481</v>
+        <v>44562</v>
       </c>
       <c r="F116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G116" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H116" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6665,19 +6644,19 @@
         <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E117" s="2">
-        <v>44562</v>
+        <v>44713</v>
       </c>
       <c r="F117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G117" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H117" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6689,19 +6668,19 @@
         <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E118" s="2">
-        <v>44713</v>
+        <v>44797</v>
       </c>
       <c r="F118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G118" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H118" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6713,23 +6692,25 @@
         <v>140</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E119" s="2">
-        <v>44797</v>
+        <v>44951</v>
       </c>
       <c r="F119" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G119" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H119" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B120" s="1">
         <v>119</v>
       </c>
@@ -6740,22 +6721,20 @@
         <v>223</v>
       </c>
       <c r="E120" s="2">
-        <v>44951</v>
+        <v>43466</v>
       </c>
       <c r="F120" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G120" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H120" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A121" s="3"/>
       <c r="B121" s="1">
         <v>120</v>
       </c>
@@ -6766,16 +6745,16 @@
         <v>224</v>
       </c>
       <c r="E121" s="2">
-        <v>43466</v>
+        <v>43514</v>
       </c>
       <c r="F121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G121" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H121" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6787,19 +6766,19 @@
         <v>143</v>
       </c>
       <c r="D122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E122" s="2">
-        <v>43514</v>
+        <v>43517</v>
       </c>
       <c r="F122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G122" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H122" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6811,19 +6790,19 @@
         <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E123" s="2">
-        <v>43517</v>
+        <v>43566</v>
       </c>
       <c r="F123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H123" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6835,19 +6814,19 @@
         <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="E124" s="2">
-        <v>43566</v>
+        <v>43609</v>
       </c>
       <c r="F124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G124" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H124" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -6859,19 +6838,19 @@
         <v>146</v>
       </c>
       <c r="D125" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E125" s="2">
-        <v>43609</v>
+        <v>43935</v>
       </c>
       <c r="F125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G125" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H125" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6883,19 +6862,19 @@
         <v>147</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E126" s="2">
-        <v>43935</v>
+        <v>43983</v>
       </c>
       <c r="F126" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H126" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -6907,19 +6886,19 @@
         <v>148</v>
       </c>
       <c r="D127" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E127" s="2">
-        <v>43983</v>
+        <v>44033</v>
       </c>
       <c r="F127" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G127" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H127" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6934,16 +6913,16 @@
         <v>227</v>
       </c>
       <c r="E128" s="2">
-        <v>44033</v>
+        <v>44044</v>
       </c>
       <c r="F128" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G128" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H128" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6954,24 +6933,23 @@
       <c r="C129" t="s">
         <v>150</v>
       </c>
-      <c r="D129" t="s">
-        <v>228</v>
-      </c>
       <c r="E129" s="2">
-        <v>44044</v>
+        <v>44262</v>
       </c>
       <c r="F129" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G129" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H129" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B130" s="1">
         <v>129</v>
       </c>
@@ -6979,22 +6957,20 @@
         <v>151</v>
       </c>
       <c r="E130" s="2">
-        <v>44262</v>
+        <v>41628</v>
       </c>
       <c r="F130" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H130" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A131" s="3"/>
       <c r="B131" s="1">
         <v>130</v>
       </c>
@@ -7002,16 +6978,16 @@
         <v>152</v>
       </c>
       <c r="E131" s="2">
-        <v>41628</v>
+        <v>42045</v>
       </c>
       <c r="F131" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G131" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H131" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7023,16 +6999,16 @@
         <v>153</v>
       </c>
       <c r="E132" s="2">
-        <v>42045</v>
+        <v>42533</v>
       </c>
       <c r="F132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G132" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H132" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7043,17 +7019,20 @@
       <c r="C133" t="s">
         <v>154</v>
       </c>
+      <c r="D133" t="s">
+        <v>228</v>
+      </c>
       <c r="E133" s="2">
-        <v>42533</v>
+        <v>43055</v>
       </c>
       <c r="F133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G133" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H133" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7064,20 +7043,17 @@
       <c r="C134" t="s">
         <v>155</v>
       </c>
-      <c r="D134" t="s">
-        <v>229</v>
-      </c>
       <c r="E134" s="2">
-        <v>43055</v>
+        <v>43252</v>
       </c>
       <c r="F134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G134" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H134" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7088,17 +7064,20 @@
       <c r="C135" t="s">
         <v>156</v>
       </c>
+      <c r="D135" t="s">
+        <v>229</v>
+      </c>
       <c r="E135" s="2">
-        <v>43252</v>
+        <v>43397</v>
       </c>
       <c r="F135" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G135" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H135" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7113,16 +7092,16 @@
         <v>230</v>
       </c>
       <c r="E136" s="2">
-        <v>43397</v>
+        <v>44126</v>
       </c>
       <c r="F136" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H136" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7137,57 +7116,33 @@
         <v>231</v>
       </c>
       <c r="E137" s="2">
-        <v>44126</v>
+        <v>44188</v>
       </c>
       <c r="F137" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="G137" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H137" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="1">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>159</v>
-      </c>
-      <c r="D138" t="s">
-        <v>232</v>
-      </c>
-      <c r="E138" s="2">
-        <v>44188</v>
-      </c>
-      <c r="F138" t="s">
-        <v>284</v>
-      </c>
-      <c r="G138" t="s">
-        <v>493</v>
-      </c>
-      <c r="H138" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="A121:A130"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A106"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A58"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A57"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/arxiv_paper_df_with_abstract_by_theme_revised.xlsx
+++ b/arxiv_paper_df_with_abstract_by_theme_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9516820-1662-4DBA-A729-8C055A0F312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999EB239-425C-49BA-AB86-30D839041CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3946,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,19 +5911,22 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>143</v>
+      </c>
+      <c r="D85" t="s">
+        <v>224</v>
       </c>
       <c r="E85" s="2">
-        <v>43720</v>
+        <v>43517</v>
       </c>
       <c r="F85" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="G85" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5932,19 +5935,19 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2">
-        <v>43790</v>
+        <v>43720</v>
       </c>
       <c r="F86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5953,19 +5956,19 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2">
-        <v>43897</v>
+        <v>43790</v>
       </c>
       <c r="F87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G87" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5974,19 +5977,19 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2">
-        <v>43921</v>
+        <v>43897</v>
       </c>
       <c r="F88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5995,22 +5998,19 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2">
-        <v>43941</v>
+        <v>43921</v>
       </c>
       <c r="F89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6019,22 +6019,22 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E90" s="2">
-        <v>44196</v>
+        <v>43941</v>
       </c>
       <c r="F90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H90" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6043,22 +6043,22 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E91" s="2">
-        <v>44201</v>
+        <v>44196</v>
       </c>
       <c r="F91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H91" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6067,22 +6067,22 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H92" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -6091,22 +6091,22 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="E93" s="2">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="F93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H93" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6115,19 +6115,22 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
+        <v>174</v>
       </c>
       <c r="E94" s="2">
-        <v>44632</v>
+        <v>44362</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H94" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6136,22 +6139,19 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2">
-        <v>44641</v>
+        <v>44632</v>
       </c>
       <c r="F95" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G95" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6160,22 +6160,22 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" s="2">
-        <v>44706</v>
+        <v>44641</v>
       </c>
       <c r="F96" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G96" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H96" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6184,22 +6184,22 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" s="2">
-        <v>44716</v>
+        <v>44706</v>
       </c>
       <c r="F97" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6208,22 +6208,22 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
         <v>213</v>
       </c>
       <c r="E98" s="2">
-        <v>44831</v>
+        <v>44716</v>
       </c>
       <c r="F98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H98" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6232,22 +6232,22 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E99" s="2">
-        <v>44953</v>
+        <v>44831</v>
       </c>
       <c r="F99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H99" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6256,19 +6256,22 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
       </c>
       <c r="E100" s="2">
-        <v>44961</v>
+        <v>44953</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G100" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H100" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6277,22 +6280,19 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2">
-        <v>45034</v>
+        <v>44961</v>
       </c>
       <c r="F101" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H101" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6301,19 +6301,22 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D102" t="s">
+        <v>215</v>
       </c>
       <c r="E102" s="2">
-        <v>45064</v>
+        <v>45034</v>
       </c>
       <c r="F102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G102" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H102" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,19 +6325,19 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2">
-        <v>45069</v>
+        <v>45064</v>
       </c>
       <c r="F103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H103" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6343,22 +6346,19 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
-      </c>
-      <c r="D104" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2">
         <v>45069</v>
       </c>
       <c r="F104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6367,89 +6367,92 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
+        <v>190</v>
       </c>
       <c r="E105" s="2">
-        <v>45075</v>
+        <v>45069</v>
       </c>
       <c r="F105" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G105" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2">
-        <v>42984</v>
+        <v>45075</v>
       </c>
       <c r="F106" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>21</v>
+      <c r="A107" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2">
-        <v>41627</v>
+        <v>42984</v>
       </c>
       <c r="F107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G107" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="D108" t="s">
+        <v>216</v>
       </c>
       <c r="E108" s="2">
-        <v>42936</v>
+        <v>41627</v>
       </c>
       <c r="F108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H108" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6458,22 +6461,19 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2">
-        <v>43014</v>
+        <v>42936</v>
       </c>
       <c r="F109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H109" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6482,22 +6482,22 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E110" s="2">
-        <v>43070</v>
+        <v>43014</v>
       </c>
       <c r="F110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6506,22 +6506,22 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" s="2">
-        <v>43157</v>
+        <v>43070</v>
       </c>
       <c r="F111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G111" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H111" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6530,19 +6530,22 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="D112" t="s">
+        <v>219</v>
       </c>
       <c r="E112" s="2">
-        <v>43929</v>
+        <v>43157</v>
       </c>
       <c r="F112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G112" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H112" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6551,22 +6554,19 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
-      </c>
-      <c r="D113" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2">
-        <v>44078</v>
+        <v>43929</v>
       </c>
       <c r="F113" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H113" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6575,19 +6575,22 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="D114" t="s">
+        <v>220</v>
       </c>
       <c r="E114" s="2">
-        <v>44462</v>
+        <v>44078</v>
       </c>
       <c r="F114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G114" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H114" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6596,19 +6599,19 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2">
-        <v>44481</v>
+        <v>44462</v>
       </c>
       <c r="F115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G115" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H115" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6617,22 +6620,19 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2">
-        <v>44562</v>
+        <v>44481</v>
       </c>
       <c r="F116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G116" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H116" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6641,22 +6641,22 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E117" s="2">
-        <v>44713</v>
+        <v>44562</v>
       </c>
       <c r="F117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G117" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H117" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6665,22 +6665,22 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
         <v>213</v>
       </c>
       <c r="E118" s="2">
-        <v>44797</v>
+        <v>44713</v>
       </c>
       <c r="F118" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G118" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H118" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6689,72 +6689,72 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E119" s="2">
-        <v>44951</v>
+        <v>44797</v>
       </c>
       <c r="F119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G119" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H119" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A120" s="3"/>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="2">
-        <v>43466</v>
+        <v>44951</v>
       </c>
       <c r="F120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G120" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H120" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E121" s="2">
-        <v>43514</v>
+        <v>43466</v>
       </c>
       <c r="F121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H121" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6763,22 +6763,22 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122" t="s">
         <v>224</v>
       </c>
       <c r="E122" s="2">
-        <v>43517</v>
+        <v>43514</v>
       </c>
       <c r="F122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H122" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7130,19 +7130,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A106"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A26:A57"/>
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A120:A129"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="A78:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
